--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>1234567890</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/Penguins.jpg</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,9 +454,10 @@
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +485,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,6 +516,9 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Email</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>C:/Users/Public/Pictures/Sample Pictures/Penguins.jpg</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>QA789</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,9 +461,10 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +495,11 @@
       <c r="J1" t="s">
         <v>14</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -519,6 +529,9 @@
       </c>
       <c r="J2" t="s">
         <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -30,12 +30,6 @@
     <t>AdminPassword</t>
   </si>
   <si>
-    <t>thejaswi.y@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>Abc@123</t>
-  </si>
-  <si>
     <t>admin@vensaiinc.com</t>
   </si>
   <si>
@@ -69,7 +63,19 @@
     <t>ImageName</t>
   </si>
   <si>
-    <t>QA789</t>
+    <t>Change Ban 1</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>sabitha.adama@gmail.com</t>
+  </si>
+  <si>
+    <t>Qa@123</t>
+  </si>
+  <si>
+    <t>DL0111</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,7 +470,7 @@
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,67 +484,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1" display="http://192.168.8.101/ecommerce_crm/coxaxle/public/banners/detail/19"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -57,15 +57,9 @@
     <t>ImagePath</t>
   </si>
   <si>
-    <t>C:/Users/Public/Pictures/Sample Pictures/Penguins.jpg</t>
-  </si>
-  <si>
     <t>ImageName</t>
   </si>
   <si>
-    <t>Change Ban 1</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>DL0111</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/1234.jpg</t>
+  </si>
+  <si>
+    <t>Test Image</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,18 +502,18 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -537,23 +537,22 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="http://192.168.8.101/ecommerce_crm/coxaxle/public/banners/detail/19"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -63,19 +63,19 @@
     <t>Code</t>
   </si>
   <si>
-    <t>sabitha.adama@gmail.com</t>
-  </si>
-  <si>
-    <t>Qa@123</t>
-  </si>
-  <si>
-    <t>DL0111</t>
-  </si>
-  <si>
     <t>C:/Users/Public/Pictures/Sample Pictures/1234.jpg</t>
   </si>
   <si>
     <t>Test Image</t>
+  </si>
+  <si>
+    <t>ravi.tiwari@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Ravi@123</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -537,13 +537,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_08_VerifyUpdateContacts.xlsx
@@ -63,9 +63,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>C:/Users/Public/Pictures/Sample Pictures/1234.jpg</t>
-  </si>
-  <si>
     <t>Test Image</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>C:/Users/Public/Pictures/Sample Pictures/Notifications.png</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +466,7 @@
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,10 +510,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -537,13 +537,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
